--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/21_Bursa_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/21_Bursa_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DBB612-F51C-416D-91F0-A03E9D5BF643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8EB3AB8-A831-49DC-BAA9-C47DF1A4ADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{757CBA1D-2FE0-4A2F-8901-6477D6D6F4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{98C010E8-B1E1-466E-8643-AEB9FFECC51C}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="143" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{15B6F430-92F4-408D-B253-8847FB8CE4D9}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D6B7077E-337E-4AA7-8CA7-FC92F53CB3F4}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4359AA42-B69F-4E09-923D-EE5262109B20}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1ABAF1C3-BC29-41F0-A692-10F68BEA7B92}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{DC5D4EF5-974A-400E-9EC6-078B81EA6749}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{690326AB-3994-416E-B127-87A48FC00C15}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B4EEA198-2DBD-40E4-B6AF-9BA99457BAB3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{028CFAD4-ABCC-4BEF-9374-7DE1750D3149}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4C5B0EF6-1924-4E14-A281-47E2BF5413E8}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{5E85E733-5B45-4619-B9A9-2214EEEB0D33}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{09EAC68C-A2CE-4C36-8067-61EA7536C41B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{39689A3C-FCEF-41F3-A247-CD382A401D72}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{1D204814-F98D-45C0-AF3E-315AABBE054D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{308F6E83-B6B3-4D09-A933-BE6C467A76D3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8753A7-2108-4345-8709-C67E2A72AD5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670787D0-676B-4C56-8E8D-AF98421AD291}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A2EB7C-613C-4627-8508-DC359792CD18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9E882A-8677-4CE9-9AA5-F337B74D2967}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F243648D-313E-4D7E-ACE7-06F8B8BE3834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF156BC2-D3AF-4E8E-B420-5E7C03D80920}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5092,7 +5092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B621F-5501-4034-8A29-6B06C57256F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9A33CD-BC2A-4A4C-B205-C394A6FB565A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6401,7 +6401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E945D5B7-D6C1-4C47-A0D6-06FC81782CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E853AF7-F83A-4606-ACF5-E07D0DC904E7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7704,7 +7704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC87A8-2AA0-47BF-B224-8DF12C0E2943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5515F-F5BA-4203-B68F-523D48D7A0DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
